--- a/annotators/Annotator_LLAMA70b_Ignore_For_Now.xlsx
+++ b/annotators/Annotator_LLAMA70b_Ignore_For_Now.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baldw\Desktop\UMO\PERC\privacy_stories_1.1\annotators\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30633357-99C1-44FD-99A0-A41AFFB95D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="555" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="294">
-  <si>
-    <t>File</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="265">
   <si>
     <t>Prompt</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Target File Path</t>
   </si>
   <si>
@@ -34,9 +34,6 @@
     <t>Model Response 1</t>
   </si>
   <si>
-    <t>Model Response 2</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
@@ -53,78 +50,6 @@
   </si>
   <si>
     <t>Please provide any stories which this output is missing</t>
-  </si>
-  <si>
-    <t>Actual_Budget\Accounts_&amp;_Transactions.txt</t>
-  </si>
-  <si>
-    <t>Akaunting\CreatingAnewAccount.txt</t>
-  </si>
-  <si>
-    <t>Attendize\features.txt</t>
-  </si>
-  <si>
-    <t>element-android\add_threePids.txt</t>
-  </si>
-  <si>
-    <t>friendica\account-basics.txt</t>
-  </si>
-  <si>
-    <t>gotosocial\signups.txt</t>
-  </si>
-  <si>
-    <t>invoiceninja\userdetails.txt</t>
-  </si>
-  <si>
-    <t>jitsi-meet\configurations.txt</t>
-  </si>
-  <si>
-    <t>joinlemmy\Getting Started.txt</t>
-  </si>
-  <si>
-    <t>koel\profile-preferences.txt</t>
-  </si>
-  <si>
-    <t>lh-ehr\Direct_Messaging_README.txt</t>
-  </si>
-  <si>
-    <t>Mattermost_Architecture\Navigation.txt</t>
-  </si>
-  <si>
-    <t>Monica\README.txt</t>
-  </si>
-  <si>
-    <t>openMRS\Architecture.txt</t>
-  </si>
-  <si>
-    <t>OpenTracks\data-structure.txt</t>
-  </si>
-  <si>
-    <t>peertube\managing-users.txt</t>
-  </si>
-  <si>
-    <t>sharetribe\analyrics-events.txt</t>
-  </si>
-  <si>
-    <t>Synapse\account_data_callbacks.txt</t>
-  </si>
-  <si>
-    <t>Synapse\account_validity_callbacks.txt</t>
-  </si>
-  <si>
-    <t>Synapse\password_auth_provider_callbacks.txt</t>
-  </si>
-  <si>
-    <t>TracDev_Docs\DatabaseSchema.txt</t>
-  </si>
-  <si>
-    <t>TracDev_Docs\INotificationDistributor.txt</t>
-  </si>
-  <si>
-    <t>TracDev_Docs\INotificationSubscriber.txt</t>
-  </si>
-  <si>
-    <t>Zulip\file.txt</t>
   </si>
   <si>
     <t xml:space="preserve">You are a privacy expert annotator tasked with annotating text files with metadata about privacy behaviors and stories. For the given text, annotate the following: 1. &lt;Actions&gt;: Actions performed or expected in the text. 2. &lt;Data Types&gt;: Types of data referenced in the text. Data types may include specific subcategories. 3. &lt;Purposes&gt;: Intentions or purposes related to the actions and data types. 4. &lt;Stories&gt;: Concise stories that describe how actions, data types, and purposes interact in context. After providing your annotations, explain your rationale for these annotations. Place &lt;R&gt; tag between your annotations and your rationale.
@@ -7915,9 +7840,6 @@
 </t>
   </si>
   <si>
-    <t>groq:llama-3.3-70b-versatile</t>
-  </si>
-  <si>
     <t>input\Actual_Budget\Accounts_&amp;_Transactions.txt</t>
   </si>
   <si>
@@ -8132,9 +8054,6 @@
   </si>
   <si>
     <t>"&lt;Actions&gt; \nCollect - The LibreEHR application gathers health data from the user.\nUse - The LibreEHR application uses health data for functionality and security purposes.\nShare - The LibreEHR application shares health data with other Direct messaging services.\n&lt;/Actions&gt; \n\n&lt;Data Types&gt; \nHealth Data: \n  Clinical data \n  CCR \n  CCD \nContact Data: \n  Direct Address \n  User ID \n  Username \n  Password \nUsage Data: \n  App Interactions \n  Device Information \n  Logs \n&lt;/Data Types&gt; \n\n&lt;Purposes&gt; \nFunctionality - Data is being used to provide Direct messaging services.\nSecurity - Data is being used for security purposes, such as validating SSL certificates and authenticating users.\nRequirements - The application is required to handle health data for compliance with Direct messaging standards.\n&lt;/Purposes&gt; \n\n&lt;Stories&gt; \n1. We collect health data for functionality. \n2. We use health data for security purposes. \n3. We share health data with other Direct messaging services for requirements. \n4. We use contact data for functionality and security purposes.\n&lt;/Stories&gt; \n\n&lt;R&gt; \n\nMy rationale for these annotations is based on the content of the provided text. The text describes the Direct Messaging feature in LibreEHR, which involves collecting, using, and sharing health data. The application collects health data from users, uses it for functionality and security purposes, and shares it with other Direct messaging services. The purposes of these actions include providing Direct messaging services, ensuring security, and meeting requirements for compliance with Direct messaging standards. The stories demonstrate how these actions, data types, and purposes interact in context. For example, the application collects health data for functionality, uses it for security purposes, and shares it with other services for requirements. The contact data is used for functionality and security purposes, such as authenticating users and validating SSL certificates. \n\nThe usage data, including app interactions, device information, and logs, is used to provide functionality and ensure security. The health data, including clinical data, CCR, and CCD, is collected, used, and shared for functionality, security, and requirements. The contact data, including Direct Address, User ID, Username, and Password, is used for functionality and security purposes. \n\nOverall, the annotations and stories demonstrate how the LibreEHR application handles health data and contact data for various purposes, including functionality, security, and requirements. \n\nNote: Some parts of the provided text were not annotated as they were not relevant to the LibreEHR application or the Direct Messaging feature. The text from Zulip was not annotated as it was not relevant to the LibreEHR application. \n\nAlso, the stories were created based on the actions, data types, and purposes annotated. They demonstrate how the LibreEHR application handles health data and contact data in different scenarios. \n\nIn the stories, \"we\" refers to the LibreEHR application. The actions, data types, and purposes are based on the annotations provided. The stories are concise and demonstrate how the actions, data types, and purposes interact in context. \n\nThe purposes of the stories are to demonstrate how the LibreEHR application handles health data and contact data, and how it uses this data for functionality, security, and requirements. The stories provide a concise overview of how the application interacts with health data and contact data, and how it uses this data to provide Direct messaging services. \n\nThe annotations and stories are based on the content of the provided text and the categories listed. They demonstrate how the LibreEHR application handles health data and contact data, and how it uses this data for various purposes. \n\nThe usage of the &lt;Actions&gt;, &lt;Data Types&gt;, &lt;Purposes&gt;, and &lt;Stories&gt; tags is proper and follows the XML format. The annotations and stories are well-structured and easy to understand. \n\nThe rationale provides a clear explanation of the annotations and stories, and demonstrates how they are based on the content of the provided text. The rationale also explains how the annotations and stories demonstrate how the LibreEHR application handles health data and contact data, and how it uses this data for various purposes. \n\nOverall, the annotations, stories, and rationale provide a clear and concise overview of how the LibreEHR application handles health data and contact data, and how it uses this data for functionality, security, and requirements."</t>
-  </si>
-  <si>
-    <t>"No Response"</t>
   </si>
   <si>
     <t>We collect Email address, Username, and Password for Account management.</t>
@@ -8617,8 +8536,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8688,7 +8607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8705,19 +8624,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8755,7 +8688,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -8789,6 +8722,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -8823,9 +8757,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8998,21 +8933,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="30.7109375" style="3" customWidth="1"/>
-    <col min="11" max="12" width="50.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="50.7109375" style="4" customWidth="1"/>
+    <col min="1" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="30.6640625" style="3" customWidth="1"/>
+    <col min="8" max="9" width="50.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="50.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9043,3687 +8980,2964 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D32" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2" t="s">
+      <c r="F32" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
+      <c r="F33" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
+      <c r="F34" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2" t="s">
+      <c r="F35" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F36" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D39" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2" t="s">
+      <c r="E39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F40" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" s="7"/>
+    </row>
+    <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2" t="s">
+      <c r="F47" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2" t="s">
+      <c r="F48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2" t="s">
+      <c r="F49" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2" t="s">
+      <c r="F50" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J50" s="7"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2" t="s">
+      <c r="F51" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J51" s="7"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2" t="s">
+      <c r="F52" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J52" s="7"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2" t="s">
+      <c r="F53" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J53" s="7"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2" t="s">
+      <c r="F54" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J54" s="7"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2" t="s">
+      <c r="F55" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2" t="s">
+      <c r="F56" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J56" s="7"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2" t="s">
+      <c r="F57" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="F58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2" t="s">
+      <c r="F59" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2" t="s">
+      <c r="F60" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="F61" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="D62" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2" t="s">
+      <c r="F62" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2" t="s">
+      <c r="F63" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J63" s="7"/>
+    </row>
+    <row r="64" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="2" t="s">
+      <c r="F64" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2" t="s">
+      <c r="F65" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2" t="s">
+      <c r="F66" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2" t="s">
+      <c r="F67" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="F68" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J68" s="7"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="D70" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2" t="s">
+      <c r="E70" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J73" s="7"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J74" s="7"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J75" s="7"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J76" s="7"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J77" s="7"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J78" s="7"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J79" s="7"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J80" s="7"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J81" s="7"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J83" s="7"/>
+    </row>
+    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J84" s="7"/>
+    </row>
+    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J89" s="7"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J94" s="7"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J99" s="7"/>
+    </row>
+    <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J100" s="7"/>
+    </row>
+    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J101" s="7"/>
+    </row>
+    <row r="102" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J102" s="7"/>
+    </row>
+    <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J103" s="7"/>
+    </row>
+    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J104" s="7"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J105" s="7"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J106" s="7"/>
+    </row>
+    <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J107" s="7"/>
+    </row>
+    <row r="108" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J108" s="7"/>
+    </row>
+    <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J109" s="7"/>
+    </row>
+    <row r="110" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J110" s="7"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J115" s="7"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2" t="s">
+      <c r="F119" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J132" s="7"/>
+    </row>
+    <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J133" s="7"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J134" s="7"/>
+    </row>
+    <row r="135" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J135" s="7"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="6"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J136" s="7"/>
+    </row>
+    <row r="137" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J137" s="7"/>
+    </row>
+    <row r="138" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J138" s="7"/>
+    </row>
+    <row r="139" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J139" s="7"/>
+    </row>
+    <row r="140" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="6"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="6"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J141" s="7"/>
+    </row>
+    <row r="142" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J142" s="7"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J143" s="7"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="6"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="6"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J145" s="7"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="6"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J146" s="7"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J147" s="7"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="6"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J149" s="7"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J150" s="7"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J151" s="7"/>
+    </row>
+    <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J152" s="7"/>
+    </row>
+    <row r="153" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J153" s="7"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J154" s="7"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="6"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J155" s="7"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J156" s="7"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="6"/>
+      <c r="E157" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J157" s="7"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J158" s="7"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J159" s="7"/>
+    </row>
+    <row r="160" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J160" s="7"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J161" s="7"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J162" s="7"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="2" t="s">
+      <c r="F163" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J163" s="7"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M61" s="4"/>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M62" s="4"/>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M63" s="4"/>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M64" s="4"/>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M65" s="4"/>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M66" s="4"/>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M68" s="4"/>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M95" s="4"/>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M102" s="4"/>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M103" s="4"/>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M104" s="4"/>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M105" s="4"/>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M106" s="4"/>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M107" s="4"/>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M108" s="4"/>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M110" s="4"/>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M111" s="4"/>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M112" s="4"/>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M113" s="4"/>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M114" s="4"/>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M115" s="4"/>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M116" s="4"/>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M117" s="4"/>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M118" s="4"/>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M119" s="4"/>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M120" s="4"/>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M121" s="4"/>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J122" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M122" s="4"/>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J123" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M123" s="4"/>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M124" s="4"/>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J125" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M125" s="4"/>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M126" s="4"/>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M127" s="4"/>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M128" s="4"/>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M129" s="4"/>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J130" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M130" s="4"/>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="2" t="s">
+      <c r="F164" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+      <c r="E165" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I131" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J131" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M131" s="4"/>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="2" t="s">
+      <c r="F165" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J165" s="7"/>
+    </row>
+    <row r="166" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="6"/>
+      <c r="E166" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I132" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M132" s="4"/>
-    </row>
-    <row r="133" spans="1:13">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M133" s="4"/>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J134" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M134" s="4"/>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J135" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M135" s="4"/>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J136" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M136" s="4"/>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J137" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M137" s="4"/>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M138" s="4"/>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J139" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M139" s="4"/>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M140" s="4"/>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M141" s="4"/>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J142" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M142" s="4"/>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="A143" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J143" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M143" s="4"/>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J144" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M144" s="4"/>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J145" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M145" s="4"/>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J146" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M146" s="4"/>
-    </row>
-    <row r="147" spans="1:13">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M147" s="4"/>
-    </row>
-    <row r="148" spans="1:13">
-      <c r="A148" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M148" s="4"/>
-    </row>
-    <row r="149" spans="1:13">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J149" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M149" s="4"/>
-    </row>
-    <row r="150" spans="1:13">
-      <c r="A150" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M150" s="4"/>
-    </row>
-    <row r="151" spans="1:13">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J151" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M151" s="4"/>
-    </row>
-    <row r="152" spans="1:13">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J152" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M152" s="4"/>
-    </row>
-    <row r="153" spans="1:13">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J153" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M153" s="4"/>
-    </row>
-    <row r="154" spans="1:13">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J154" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M154" s="4"/>
-    </row>
-    <row r="155" spans="1:13">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J155" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M155" s="4"/>
-    </row>
-    <row r="156" spans="1:13">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M156" s="4"/>
-    </row>
-    <row r="157" spans="1:13">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J157" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M157" s="4"/>
-    </row>
-    <row r="158" spans="1:13">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M158" s="4"/>
-    </row>
-    <row r="159" spans="1:13">
-      <c r="A159" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J159" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M159" s="4"/>
-    </row>
-    <row r="160" spans="1:13">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M160" s="4"/>
-    </row>
-    <row r="161" spans="1:13">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M161" s="4"/>
-    </row>
-    <row r="162" spans="1:13">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M162" s="4"/>
-    </row>
-    <row r="163" spans="1:13">
-      <c r="A163" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J163" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M163" s="4"/>
-    </row>
-    <row r="164" spans="1:13">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M164" s="4"/>
-    </row>
-    <row r="165" spans="1:13">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J165" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M165" s="4"/>
-    </row>
-    <row r="166" spans="1:13">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J166" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="M166" s="4"/>
+      <c r="F166" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J166" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="120">
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="C159:C162"/>
+    <mergeCell ref="D159:D162"/>
+    <mergeCell ref="J159:J162"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="D163:D166"/>
+    <mergeCell ref="J163:J166"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="B150:B158"/>
+    <mergeCell ref="C150:C158"/>
+    <mergeCell ref="D150:D158"/>
+    <mergeCell ref="J150:J158"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="C139:C142"/>
+    <mergeCell ref="D139:D142"/>
+    <mergeCell ref="J139:J142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="B143:B147"/>
+    <mergeCell ref="C143:C147"/>
+    <mergeCell ref="D143:D147"/>
+    <mergeCell ref="J143:J147"/>
+    <mergeCell ref="A109:A128"/>
+    <mergeCell ref="B109:B128"/>
+    <mergeCell ref="C109:C128"/>
+    <mergeCell ref="D109:D128"/>
+    <mergeCell ref="J109:J128"/>
+    <mergeCell ref="A129:A138"/>
+    <mergeCell ref="B129:B138"/>
+    <mergeCell ref="C129:C138"/>
+    <mergeCell ref="D129:D138"/>
+    <mergeCell ref="J129:J138"/>
+    <mergeCell ref="A96:A99"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="B100:B108"/>
+    <mergeCell ref="C100:C108"/>
+    <mergeCell ref="D100:D108"/>
+    <mergeCell ref="J100:J108"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="J84:J88"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="C89:C95"/>
+    <mergeCell ref="D89:D95"/>
+    <mergeCell ref="J89:J95"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="J62:J69"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="A47:A56"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="C47:C56"/>
+    <mergeCell ref="D47:D56"/>
+    <mergeCell ref="J47:J56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="J32:J38"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="B39:B46"/>
+    <mergeCell ref="C39:C46"/>
+    <mergeCell ref="D39:D46"/>
+    <mergeCell ref="J39:J46"/>
+    <mergeCell ref="A11:A28"/>
+    <mergeCell ref="B11:B28"/>
+    <mergeCell ref="C11:C28"/>
+    <mergeCell ref="D11:D28"/>
+    <mergeCell ref="J11:J28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="J29:J31"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="J2:J7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="A11:A28"/>
-    <mergeCell ref="B11:B28"/>
-    <mergeCell ref="C11:C28"/>
-    <mergeCell ref="D11:D28"/>
-    <mergeCell ref="E11:E28"/>
-    <mergeCell ref="F11:F28"/>
-    <mergeCell ref="G11:G28"/>
-    <mergeCell ref="M11:M28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F32:F38"/>
-    <mergeCell ref="G32:G38"/>
-    <mergeCell ref="M32:M38"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="B39:B46"/>
-    <mergeCell ref="C39:C46"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="E39:E46"/>
-    <mergeCell ref="F39:F46"/>
-    <mergeCell ref="G39:G46"/>
-    <mergeCell ref="M39:M46"/>
-    <mergeCell ref="A47:A56"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="C47:C56"/>
-    <mergeCell ref="D47:D56"/>
-    <mergeCell ref="E47:E56"/>
-    <mergeCell ref="F47:F56"/>
-    <mergeCell ref="G47:G56"/>
-    <mergeCell ref="M47:M56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="M57:M61"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="E62:E69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="G62:G69"/>
-    <mergeCell ref="M62:M69"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="G70:G77"/>
-    <mergeCell ref="M70:M77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="M78:M80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="M84:M88"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="B89:B95"/>
-    <mergeCell ref="C89:C95"/>
-    <mergeCell ref="D89:D95"/>
-    <mergeCell ref="E89:E95"/>
-    <mergeCell ref="F89:F95"/>
-    <mergeCell ref="G89:G95"/>
-    <mergeCell ref="M89:M95"/>
-    <mergeCell ref="A96:A99"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="E96:E99"/>
-    <mergeCell ref="F96:F99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="M96:M99"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="B100:B108"/>
-    <mergeCell ref="C100:C108"/>
-    <mergeCell ref="D100:D108"/>
-    <mergeCell ref="E100:E108"/>
-    <mergeCell ref="F100:F108"/>
-    <mergeCell ref="G100:G108"/>
-    <mergeCell ref="M100:M108"/>
-    <mergeCell ref="A109:A128"/>
-    <mergeCell ref="B109:B128"/>
-    <mergeCell ref="C109:C128"/>
-    <mergeCell ref="D109:D128"/>
-    <mergeCell ref="E109:E128"/>
-    <mergeCell ref="F109:F128"/>
-    <mergeCell ref="G109:G128"/>
-    <mergeCell ref="M109:M128"/>
-    <mergeCell ref="A129:A138"/>
-    <mergeCell ref="B129:B138"/>
-    <mergeCell ref="C129:C138"/>
-    <mergeCell ref="D129:D138"/>
-    <mergeCell ref="E129:E138"/>
-    <mergeCell ref="F129:F138"/>
-    <mergeCell ref="G129:G138"/>
-    <mergeCell ref="M129:M138"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="C139:C142"/>
-    <mergeCell ref="D139:D142"/>
-    <mergeCell ref="E139:E142"/>
-    <mergeCell ref="F139:F142"/>
-    <mergeCell ref="G139:G142"/>
-    <mergeCell ref="M139:M142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="C143:C147"/>
-    <mergeCell ref="D143:D147"/>
-    <mergeCell ref="E143:E147"/>
-    <mergeCell ref="F143:F147"/>
-    <mergeCell ref="G143:G147"/>
-    <mergeCell ref="M143:M147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:F149"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="M148:M149"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="B150:B158"/>
-    <mergeCell ref="C150:C158"/>
-    <mergeCell ref="D150:D158"/>
-    <mergeCell ref="E150:E158"/>
-    <mergeCell ref="F150:F158"/>
-    <mergeCell ref="G150:G158"/>
-    <mergeCell ref="M150:M158"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="C159:C162"/>
-    <mergeCell ref="D159:D162"/>
-    <mergeCell ref="E159:E162"/>
-    <mergeCell ref="F159:F162"/>
-    <mergeCell ref="G159:G162"/>
-    <mergeCell ref="M159:M162"/>
-    <mergeCell ref="A163:A166"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="D163:D166"/>
-    <mergeCell ref="E163:E166"/>
-    <mergeCell ref="F163:F166"/>
-    <mergeCell ref="G163:G166"/>
-    <mergeCell ref="M163:M166"/>
+    <mergeCell ref="J8:J10"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Selection" error="Please choose either Yes or No from the dropdown." promptTitle="Select Yes or No" sqref="I2:I166">
-      <formula1>"null,Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Selection" error="Please choose either Yes or No from the dropdown." promptTitle="Select Yes or No" sqref="J2:J166">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Selection" error="Please choose either Yes or No from the dropdown." promptTitle="Select Yes or No" sqref="F2:G166" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"null,Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
